--- a/LinqQueryData.xlsx
+++ b/LinqQueryData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="235">
   <si>
     <t>62212832</t>
   </si>
@@ -701,6 +701,24 @@
   </si>
   <si>
     <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>WIID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -749,6 +767,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F1048576" totalsRowShown="0">
+  <tableColumns count="6">
+    <tableColumn id="1" name="Actions"/>
+    <tableColumn id="2" name="WIID"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Type"/>
+    <tableColumn id="5" name="Status"/>
+    <tableColumn id="6" name="Date"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1036,357 +1068,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F330"/>
+  <dimension ref="A1:F331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221:F330"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
       <c r="B1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1398,63 +1441,63 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1466,148 +1509,148 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1619,29 +1662,29 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -1653,284 +1696,284 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
         <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1942,63 +1985,63 @@
         <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E54" t="s">
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
         <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -2010,12 +2053,12 @@
         <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -2027,29 +2070,29 @@
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E59" t="s">
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
@@ -2061,63 +2104,63 @@
         <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
         <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E63" t="s">
         <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -2129,165 +2172,165 @@
         <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E65" t="s">
         <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
         <v>3</v>
       </c>
       <c r="F66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E67" t="s">
         <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
         <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E69" t="s">
         <v>3</v>
       </c>
       <c r="F69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
         <v>3</v>
       </c>
       <c r="F70" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E71" t="s">
         <v>3</v>
       </c>
       <c r="F71" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
         <v>3</v>
       </c>
       <c r="F72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E73" t="s">
         <v>3</v>
       </c>
       <c r="F73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -2299,97 +2342,97 @@
         <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E75" t="s">
         <v>3</v>
       </c>
       <c r="F75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
         <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E77" t="s">
         <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E78" t="s">
         <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
         <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -2401,29 +2444,29 @@
         <v>3</v>
       </c>
       <c r="F80" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E81" t="s">
         <v>3</v>
       </c>
       <c r="F81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -2435,12 +2478,12 @@
         <v>3</v>
       </c>
       <c r="F82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -2452,12 +2495,12 @@
         <v>3</v>
       </c>
       <c r="F83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -2469,12 +2512,12 @@
         <v>3</v>
       </c>
       <c r="F84" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -2486,80 +2529,80 @@
         <v>3</v>
       </c>
       <c r="F85" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E86" t="s">
         <v>3</v>
       </c>
       <c r="F86" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E87" t="s">
         <v>3</v>
       </c>
       <c r="F87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
         <v>3</v>
       </c>
       <c r="F88" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E89" t="s">
         <v>3</v>
       </c>
       <c r="F89" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -2571,29 +2614,29 @@
         <v>3</v>
       </c>
       <c r="F90" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C91" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E91" t="s">
         <v>3</v>
       </c>
       <c r="F91" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -2605,437 +2648,437 @@
         <v>3</v>
       </c>
       <c r="F92" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E93" t="s">
         <v>3</v>
       </c>
       <c r="F93" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E94" t="s">
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E95" t="s">
         <v>3</v>
       </c>
       <c r="F95" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E96" t="s">
         <v>3</v>
       </c>
       <c r="F96" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E97" t="s">
         <v>3</v>
       </c>
       <c r="F97" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E98" t="s">
         <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
         <v>3</v>
       </c>
       <c r="F99" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E100" t="s">
         <v>3</v>
       </c>
       <c r="F100" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C101" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E101" t="s">
         <v>3</v>
       </c>
       <c r="F101" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E102" t="s">
         <v>3</v>
       </c>
       <c r="F102" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C103" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E103" t="s">
         <v>3</v>
       </c>
       <c r="F103" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E104" t="s">
         <v>3</v>
       </c>
       <c r="F104" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E105" t="s">
         <v>3</v>
       </c>
       <c r="F105" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E106" t="s">
         <v>3</v>
       </c>
       <c r="F106" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E107" t="s">
         <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C108" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E108" t="s">
         <v>3</v>
       </c>
       <c r="F108" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E109" t="s">
         <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
         <v>3</v>
       </c>
       <c r="F110" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="C111" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E111" t="s">
         <v>3</v>
       </c>
       <c r="F111" t="s">
-        <v>4</v>
+        <v>228</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E112" t="s">
         <v>3</v>
       </c>
       <c r="F112" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E113" t="s">
         <v>3</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
         <v>3</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E115" t="s">
         <v>3</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E116" t="s">
         <v>3</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
         <v>3</v>
       </c>
       <c r="F117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -3047,80 +3090,80 @@
         <v>3</v>
       </c>
       <c r="F118" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E119" t="s">
         <v>3</v>
       </c>
       <c r="F119" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C120" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E120" t="s">
         <v>3</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E121" t="s">
         <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E122" t="s">
         <v>3</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -3132,131 +3175,131 @@
         <v>3</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C124" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E124" t="s">
         <v>3</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C125" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E125" t="s">
         <v>3</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
         <v>3</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C127" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E127" t="s">
         <v>3</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E128" t="s">
         <v>3</v>
       </c>
       <c r="F128" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C129" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E129" t="s">
         <v>3</v>
       </c>
       <c r="F129" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E130" t="s">
         <v>3</v>
       </c>
       <c r="F130" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -3268,63 +3311,63 @@
         <v>3</v>
       </c>
       <c r="F131" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E132" t="s">
         <v>3</v>
       </c>
       <c r="F132" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C133" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E133" t="s">
         <v>3</v>
       </c>
       <c r="F133" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C134" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E134" t="s">
         <v>3</v>
       </c>
       <c r="F134" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -3336,148 +3379,148 @@
         <v>3</v>
       </c>
       <c r="F135" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C136" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E136" t="s">
         <v>3</v>
       </c>
       <c r="F136" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E137" t="s">
         <v>3</v>
       </c>
       <c r="F137" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C138" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E138" t="s">
         <v>3</v>
       </c>
       <c r="F138" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C139" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E139" t="s">
         <v>3</v>
       </c>
       <c r="F139" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
         <v>3</v>
       </c>
       <c r="F140" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C141" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E141" t="s">
         <v>3</v>
       </c>
       <c r="F141" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E142" t="s">
         <v>3</v>
       </c>
       <c r="F142" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C143" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E143" t="s">
         <v>3</v>
       </c>
       <c r="F143" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
@@ -3489,29 +3532,29 @@
         <v>3</v>
       </c>
       <c r="F144" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E145" t="s">
         <v>3</v>
       </c>
       <c r="F145" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C146" t="s">
         <v>10</v>
@@ -3523,284 +3566,284 @@
         <v>3</v>
       </c>
       <c r="F146" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C147" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
         <v>3</v>
       </c>
       <c r="F147" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C148" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D148" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E148" t="s">
         <v>3</v>
       </c>
       <c r="F148" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E149" t="s">
         <v>3</v>
       </c>
       <c r="F149" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D150" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E150" t="s">
         <v>3</v>
       </c>
       <c r="F150" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C151" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E151" t="s">
         <v>3</v>
       </c>
       <c r="F151" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E152" t="s">
         <v>3</v>
       </c>
       <c r="F152" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C153" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E153" t="s">
         <v>3</v>
       </c>
       <c r="F153" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C154" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E154" t="s">
         <v>3</v>
       </c>
       <c r="F154" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E155" t="s">
         <v>3</v>
       </c>
       <c r="F155" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C156" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E156" t="s">
         <v>3</v>
       </c>
       <c r="F156" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C157" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E157" t="s">
         <v>3</v>
       </c>
       <c r="F157" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E158" t="s">
         <v>3</v>
       </c>
       <c r="F158" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C159" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
         <v>3</v>
       </c>
       <c r="F159" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E160" t="s">
         <v>3</v>
       </c>
       <c r="F160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E161" t="s">
         <v>3</v>
       </c>
       <c r="F161" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
         <v>3</v>
       </c>
       <c r="F162" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
@@ -3812,63 +3855,63 @@
         <v>3</v>
       </c>
       <c r="F163" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C164" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E164" t="s">
         <v>3</v>
       </c>
       <c r="F164" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E165" t="s">
         <v>3</v>
       </c>
       <c r="F165" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C166" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E166" t="s">
         <v>3</v>
       </c>
       <c r="F166" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
@@ -3880,12 +3923,12 @@
         <v>3</v>
       </c>
       <c r="F167" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
@@ -3897,29 +3940,29 @@
         <v>3</v>
       </c>
       <c r="F168" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C169" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E169" t="s">
         <v>3</v>
       </c>
       <c r="F169" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C170" t="s">
         <v>10</v>
@@ -3931,63 +3974,63 @@
         <v>3</v>
       </c>
       <c r="F170" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C171" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
         <v>3</v>
       </c>
       <c r="F171" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E172" t="s">
         <v>3</v>
       </c>
       <c r="F172" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C173" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E173" t="s">
         <v>3</v>
       </c>
       <c r="F173" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C174" t="s">
         <v>14</v>
@@ -3999,165 +4042,165 @@
         <v>3</v>
       </c>
       <c r="F174" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C175" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D175" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E175" t="s">
         <v>3</v>
       </c>
       <c r="F175" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E176" t="s">
         <v>3</v>
       </c>
       <c r="F176" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C177" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D177" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E177" t="s">
         <v>3</v>
       </c>
       <c r="F177" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D178" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E178" t="s">
         <v>3</v>
       </c>
       <c r="F178" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C179" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D179" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E179" t="s">
         <v>3</v>
       </c>
       <c r="F179" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D180" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E180" t="s">
         <v>3</v>
       </c>
       <c r="F180" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C181" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D181" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E181" t="s">
         <v>3</v>
       </c>
       <c r="F181" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C182" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
         <v>3</v>
       </c>
       <c r="F182" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C183" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D183" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E183" t="s">
         <v>3</v>
       </c>
       <c r="F183" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C184" t="s">
         <v>1</v>
@@ -4169,97 +4212,97 @@
         <v>3</v>
       </c>
       <c r="F184" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C185" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E185" t="s">
         <v>3</v>
       </c>
       <c r="F185" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C186" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
         <v>3</v>
       </c>
       <c r="F186" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C187" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E187" t="s">
         <v>3</v>
       </c>
       <c r="F187" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C188" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D188" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E188" t="s">
         <v>3</v>
       </c>
       <c r="F188" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E189" t="s">
         <v>3</v>
       </c>
       <c r="F189" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -4271,29 +4314,29 @@
         <v>3</v>
       </c>
       <c r="F190" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C191" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D191" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E191" t="s">
         <v>3</v>
       </c>
       <c r="F191" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C192" t="s">
         <v>14</v>
@@ -4305,12 +4348,12 @@
         <v>3</v>
       </c>
       <c r="F192" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C193" t="s">
         <v>14</v>
@@ -4322,12 +4365,12 @@
         <v>3</v>
       </c>
       <c r="F193" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C194" t="s">
         <v>14</v>
@@ -4339,12 +4382,12 @@
         <v>3</v>
       </c>
       <c r="F194" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C195" t="s">
         <v>14</v>
@@ -4356,80 +4399,80 @@
         <v>3</v>
       </c>
       <c r="F195" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C196" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D196" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E196" t="s">
         <v>3</v>
       </c>
       <c r="F196" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C197" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E197" t="s">
         <v>3</v>
       </c>
       <c r="F197" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C198" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
         <v>3</v>
       </c>
       <c r="F198" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E199" t="s">
         <v>3</v>
       </c>
       <c r="F199" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C200" t="s">
         <v>14</v>
@@ -4441,29 +4484,29 @@
         <v>3</v>
       </c>
       <c r="F200" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C201" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D201" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E201" t="s">
         <v>3</v>
       </c>
       <c r="F201" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
@@ -4475,437 +4518,437 @@
         <v>3</v>
       </c>
       <c r="F202" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C203" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E203" t="s">
         <v>3</v>
       </c>
       <c r="F203" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C204" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D204" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E204" t="s">
         <v>3</v>
       </c>
       <c r="F204" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C205" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E205" t="s">
         <v>3</v>
       </c>
       <c r="F205" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E206" t="s">
         <v>3</v>
       </c>
       <c r="F206" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C207" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D207" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E207" t="s">
         <v>3</v>
       </c>
       <c r="F207" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C208" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D208" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E208" t="s">
         <v>3</v>
       </c>
       <c r="F208" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C209" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
         <v>3</v>
       </c>
       <c r="F209" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C210" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D210" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E210" t="s">
         <v>3</v>
       </c>
       <c r="F210" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C211" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D211" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E211" t="s">
         <v>3</v>
       </c>
       <c r="F211" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C212" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E212" t="s">
         <v>3</v>
       </c>
       <c r="F212" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C213" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D213" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E213" t="s">
         <v>3</v>
       </c>
       <c r="F213" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E214" t="s">
         <v>3</v>
       </c>
       <c r="F214" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E215" t="s">
         <v>3</v>
       </c>
       <c r="F215" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D216" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E216" t="s">
         <v>3</v>
       </c>
       <c r="F216" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D217" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E217" t="s">
         <v>3</v>
       </c>
       <c r="F217" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D218" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E218" t="s">
         <v>3</v>
       </c>
       <c r="F218" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C219" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E219" t="s">
         <v>3</v>
       </c>
       <c r="F219" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C220" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E220" t="s">
         <v>3</v>
       </c>
       <c r="F220" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="C221" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D221" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E221" t="s">
         <v>3</v>
       </c>
       <c r="F221" t="s">
-        <v>4</v>
+        <v>228</v>
       </c>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D222" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E222" t="s">
         <v>3</v>
       </c>
       <c r="F222" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D223" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E223" t="s">
         <v>3</v>
       </c>
       <c r="F223" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E224" t="s">
         <v>3</v>
       </c>
       <c r="F224" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D225" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E225" t="s">
         <v>3</v>
       </c>
       <c r="F225" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C226" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D226" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E226" t="s">
         <v>3</v>
       </c>
       <c r="F226" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C227" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D227" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E227" t="s">
         <v>3</v>
       </c>
       <c r="F227" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C228" t="s">
         <v>14</v>
@@ -4917,80 +4960,80 @@
         <v>3</v>
       </c>
       <c r="F228" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C229" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D229" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E229" t="s">
         <v>3</v>
       </c>
       <c r="F229" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C230" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D230" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E230" t="s">
         <v>3</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C231" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E231" t="s">
         <v>3</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C232" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D232" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E232" t="s">
         <v>3</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
@@ -5002,131 +5045,131 @@
         <v>3</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C234" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E234" t="s">
         <v>3</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C235" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D235" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E235" t="s">
         <v>3</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C236" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D236" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E236" t="s">
         <v>3</v>
       </c>
       <c r="F236" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C237" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D237" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E237" t="s">
         <v>3</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C238" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D238" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E238" t="s">
         <v>3</v>
       </c>
       <c r="F238" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C239" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D239" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E239" t="s">
         <v>3</v>
       </c>
       <c r="F239" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C240" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E240" t="s">
         <v>3</v>
       </c>
       <c r="F240" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C241" t="s">
         <v>14</v>
@@ -5138,63 +5181,63 @@
         <v>3</v>
       </c>
       <c r="F241" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C242" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D242" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E242" t="s">
         <v>3</v>
       </c>
       <c r="F242" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C243" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D243" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E243" t="s">
         <v>3</v>
       </c>
       <c r="F243" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C244" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D244" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E244" t="s">
         <v>3</v>
       </c>
       <c r="F244" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C245" t="s">
         <v>14</v>
@@ -5206,148 +5249,148 @@
         <v>3</v>
       </c>
       <c r="F245" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C246" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D246" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E246" t="s">
         <v>3</v>
       </c>
       <c r="F246" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C247" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D247" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E247" t="s">
         <v>3</v>
       </c>
       <c r="F247" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C248" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D248" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E248" t="s">
         <v>3</v>
       </c>
       <c r="F248" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C249" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E249" t="s">
         <v>3</v>
       </c>
       <c r="F249" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E250" t="s">
         <v>3</v>
       </c>
       <c r="F250" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C251" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D251" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E251" t="s">
         <v>3</v>
       </c>
       <c r="F251" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C252" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D252" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E252" t="s">
         <v>3</v>
       </c>
       <c r="F252" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C253" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D253" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E253" t="s">
         <v>3</v>
       </c>
       <c r="F253" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C254" t="s">
         <v>1</v>
@@ -5359,29 +5402,29 @@
         <v>3</v>
       </c>
       <c r="F254" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C255" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D255" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E255" t="s">
         <v>3</v>
       </c>
       <c r="F255" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C256" t="s">
         <v>10</v>
@@ -5393,284 +5436,284 @@
         <v>3</v>
       </c>
       <c r="F256" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D257" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E257" t="s">
         <v>3</v>
       </c>
       <c r="F257" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C258" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D258" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E258" t="s">
         <v>3</v>
       </c>
       <c r="F258" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C259" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E259" t="s">
         <v>3</v>
       </c>
       <c r="F259" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C260" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D260" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E260" t="s">
         <v>3</v>
       </c>
       <c r="F260" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C261" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D261" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E261" t="s">
         <v>3</v>
       </c>
       <c r="F261" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C262" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E262" t="s">
         <v>3</v>
       </c>
       <c r="F262" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C263" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D263" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E263" t="s">
         <v>3</v>
       </c>
       <c r="F263" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C264" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D264" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E264" t="s">
         <v>3</v>
       </c>
       <c r="F264" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C265" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D265" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E265" t="s">
         <v>3</v>
       </c>
       <c r="F265" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C266" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D266" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E266" t="s">
         <v>3</v>
       </c>
       <c r="F266" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C267" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D267" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E267" t="s">
         <v>3</v>
       </c>
       <c r="F267" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C268" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D268" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E268" t="s">
         <v>3</v>
       </c>
       <c r="F268" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C269" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D269" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E269" t="s">
         <v>3</v>
       </c>
       <c r="F269" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D270" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E270" t="s">
         <v>3</v>
       </c>
       <c r="F270" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C271" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D271" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E271" t="s">
         <v>3</v>
       </c>
       <c r="F271" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C272" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D272" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E272" t="s">
         <v>3</v>
       </c>
       <c r="F272" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C273" t="s">
         <v>6</v>
@@ -5682,63 +5725,63 @@
         <v>3</v>
       </c>
       <c r="F273" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C274" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D274" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E274" t="s">
         <v>3</v>
       </c>
       <c r="F274" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C275" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D275" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E275" t="s">
         <v>3</v>
       </c>
       <c r="F275" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C276" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D276" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E276" t="s">
         <v>3</v>
       </c>
       <c r="F276" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C277" t="s">
         <v>1</v>
@@ -5750,12 +5793,12 @@
         <v>3</v>
       </c>
       <c r="F277" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C278" t="s">
         <v>1</v>
@@ -5767,29 +5810,29 @@
         <v>3</v>
       </c>
       <c r="F278" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C279" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D279" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E279" t="s">
         <v>3</v>
       </c>
       <c r="F279" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C280" t="s">
         <v>10</v>
@@ -5801,63 +5844,63 @@
         <v>3</v>
       </c>
       <c r="F280" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C281" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D281" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E281" t="s">
         <v>3</v>
       </c>
       <c r="F281" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C282" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D282" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E282" t="s">
         <v>3</v>
       </c>
       <c r="F282" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C283" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D283" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E283" t="s">
         <v>3</v>
       </c>
       <c r="F283" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
@@ -5869,165 +5912,165 @@
         <v>3</v>
       </c>
       <c r="F284" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C285" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D285" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E285" t="s">
         <v>3</v>
       </c>
       <c r="F285" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C286" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D286" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E286" t="s">
         <v>3</v>
       </c>
       <c r="F286" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C287" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D287" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E287" t="s">
         <v>3</v>
       </c>
       <c r="F287" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D288" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E288" t="s">
         <v>3</v>
       </c>
       <c r="F288" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C289" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D289" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E289" t="s">
         <v>3</v>
       </c>
       <c r="F289" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C290" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D290" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E290" t="s">
         <v>3</v>
       </c>
       <c r="F290" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C291" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D291" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E291" t="s">
         <v>3</v>
       </c>
       <c r="F291" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C292" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D292" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E292" t="s">
         <v>3</v>
       </c>
       <c r="F292" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C293" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D293" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E293" t="s">
         <v>3</v>
       </c>
       <c r="F293" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C294" t="s">
         <v>1</v>
@@ -6039,97 +6082,97 @@
         <v>3</v>
       </c>
       <c r="F294" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C295" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D295" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E295" t="s">
         <v>3</v>
       </c>
       <c r="F295" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C296" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D296" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E296" t="s">
         <v>3</v>
       </c>
       <c r="F296" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C297" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D297" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E297" t="s">
         <v>3</v>
       </c>
       <c r="F297" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C298" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D298" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E298" t="s">
         <v>3</v>
       </c>
       <c r="F298" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C299" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D299" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E299" t="s">
         <v>3</v>
       </c>
       <c r="F299" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C300" t="s">
         <v>6</v>
@@ -6141,29 +6184,29 @@
         <v>3</v>
       </c>
       <c r="F300" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C301" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D301" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E301" t="s">
         <v>3</v>
       </c>
       <c r="F301" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C302" t="s">
         <v>14</v>
@@ -6175,12 +6218,12 @@
         <v>3</v>
       </c>
       <c r="F302" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C303" t="s">
         <v>14</v>
@@ -6192,12 +6235,12 @@
         <v>3</v>
       </c>
       <c r="F303" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C304" t="s">
         <v>14</v>
@@ -6209,12 +6252,12 @@
         <v>3</v>
       </c>
       <c r="F304" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C305" t="s">
         <v>14</v>
@@ -6226,80 +6269,80 @@
         <v>3</v>
       </c>
       <c r="F305" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C306" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D306" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E306" t="s">
         <v>3</v>
       </c>
       <c r="F306" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C307" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D307" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E307" t="s">
         <v>3</v>
       </c>
       <c r="F307" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C308" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D308" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E308" t="s">
         <v>3</v>
       </c>
       <c r="F308" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C309" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D309" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E309" t="s">
         <v>3</v>
       </c>
       <c r="F309" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C310" t="s">
         <v>14</v>
@@ -6311,29 +6354,29 @@
         <v>3</v>
       </c>
       <c r="F310" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C311" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D311" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E311" t="s">
         <v>3</v>
       </c>
       <c r="F311" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C312" t="s">
         <v>1</v>
@@ -6345,316 +6388,337 @@
         <v>3</v>
       </c>
       <c r="F312" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C313" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D313" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E313" t="s">
         <v>3</v>
       </c>
       <c r="F313" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C314" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D314" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E314" t="s">
         <v>3</v>
       </c>
       <c r="F314" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C315" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D315" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E315" t="s">
         <v>3</v>
       </c>
       <c r="F315" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C316" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D316" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E316" t="s">
         <v>3</v>
       </c>
       <c r="F316" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C317" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D317" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E317" t="s">
         <v>3</v>
       </c>
       <c r="F317" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C318" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D318" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E318" t="s">
         <v>3</v>
       </c>
       <c r="F318" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C319" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D319" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E319" t="s">
         <v>3</v>
       </c>
       <c r="F319" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C320" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D320" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E320" t="s">
         <v>3</v>
       </c>
       <c r="F320" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C321" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D321" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E321" t="s">
         <v>3</v>
       </c>
       <c r="F321" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C322" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D322" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E322" t="s">
         <v>3</v>
       </c>
       <c r="F322" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C323" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D323" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E323" t="s">
         <v>3</v>
       </c>
       <c r="F323" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C324" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D324" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E324" t="s">
         <v>3</v>
       </c>
       <c r="F324" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C325" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D325" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E325" t="s">
         <v>3</v>
       </c>
       <c r="F325" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C326" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D326" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E326" t="s">
         <v>3</v>
       </c>
       <c r="F326" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C327" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D327" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E327" t="s">
         <v>3</v>
       </c>
       <c r="F327" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C328" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D328" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E328" t="s">
         <v>3</v>
       </c>
       <c r="F328" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C329" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D329" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E329" t="s">
         <v>3</v>
       </c>
       <c r="F329" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
+        <v>225</v>
+      </c>
+      <c r="C330" t="s">
+        <v>10</v>
+      </c>
+      <c r="D330" t="s">
+        <v>11</v>
+      </c>
+      <c r="E330" t="s">
+        <v>3</v>
+      </c>
+      <c r="F330" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
         <v>227</v>
       </c>
-      <c r="C330" t="s">
-        <v>14</v>
-      </c>
-      <c r="D330" t="s">
-        <v>15</v>
-      </c>
-      <c r="E330" t="s">
-        <v>3</v>
-      </c>
-      <c r="F330" t="s">
+      <c r="C331" t="s">
+        <v>14</v>
+      </c>
+      <c r="D331" t="s">
+        <v>15</v>
+      </c>
+      <c r="E331" t="s">
+        <v>3</v>
+      </c>
+      <c r="F331" t="s">
         <v>228</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>